--- a/src/main/webapp/lib/软件业务收入百强公司.xlsx
+++ b/src/main/webapp/lib/软件业务收入百强公司.xlsx
@@ -16,41 +16,401 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
   <si>
     <t>华为技术有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔集团公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州海康威视数字技术股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国网信息通信产业集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大华技术股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株洲中车时代电气股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海尔集团公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东青岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入（万元）</t>
+  </si>
+  <si>
+    <t>南京南瑞集团公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天信息股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯方舟科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫电子集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云计算有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京中软国际信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京京东尚科信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东软集团股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东华软件股份公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信科技（中国）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软通动力信息技术（集团）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉邮电科学研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同方股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京小米移动软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文思海辉技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海华东电脑股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省通信服务有限公司</t>
+  </si>
+  <si>
+    <t>用友网络科技股份有限公司</t>
+  </si>
+  <si>
+    <t>福州福大自动化科技有限公司</t>
+  </si>
+  <si>
+    <t>中国软件与技术服务股份有限公司</t>
+  </si>
+  <si>
+    <t>北京全路通信信号研究设计院集团有限公司</t>
+  </si>
+  <si>
+    <t>大族激光科技产业集团股份有限公司</t>
+  </si>
+  <si>
+    <t>广州佳都集团有限公司</t>
+  </si>
+  <si>
+    <t>国电南京自动化股份有限公司</t>
+  </si>
+  <si>
+    <t>浙大网新科技股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳市云中飞网络科技有限公司</t>
+  </si>
+  <si>
+    <t>上海华讯网络系统有限公司</t>
+  </si>
+  <si>
+    <t>神州数码系统集成服务有限公司</t>
+  </si>
+  <si>
+    <t>上海宝信软件股份有限公司</t>
+  </si>
+  <si>
+    <t>太极计算机股份有限公司</t>
+  </si>
+  <si>
+    <t>中科软科技股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳市金证科技股份有限公司</t>
+  </si>
+  <si>
+    <t>中国电子科技网络信息安全有限公司</t>
+  </si>
+  <si>
+    <t>中国民航信息网络股份有限公司</t>
+  </si>
+  <si>
+    <t>中兴软创科技股份有限公司</t>
+  </si>
+  <si>
+    <t>福建星网锐捷通讯股份有限公司</t>
+  </si>
+  <si>
+    <t>四川省通信产业服务有限公司</t>
+  </si>
+  <si>
+    <t>平安科技（深圳）有限公司</t>
+  </si>
+  <si>
+    <t>北明软件有限公司</t>
+  </si>
+  <si>
+    <t>科大讯飞股份有限公司</t>
+  </si>
+  <si>
+    <t>新大陆科技集团有限公司</t>
+  </si>
+  <si>
+    <t>北京神州泰岳软件股份有限公司</t>
+  </si>
+  <si>
+    <t>广州广电运通金融电子股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳市大疆创新科技有限公司</t>
+  </si>
+  <si>
+    <t>石化盈科信息技术有限责任公司</t>
+  </si>
+  <si>
+    <t>百度云计算技术(北京)有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州海格通信集团股份有限公司                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">携程旅游网络技术(上海)有限公司                      </t>
+  </si>
+  <si>
+    <t>卡斯柯信号有限公司</t>
+  </si>
+  <si>
+    <t>中控科技集团有限公司</t>
+  </si>
+  <si>
+    <t>深圳天源迪科信息技术股份有限公司</t>
+  </si>
+  <si>
+    <t>东方电子集团有限公司</t>
+  </si>
+  <si>
+    <t>北京中油瑞飞信息技术有限责任公司</t>
+  </si>
+  <si>
+    <t>信雅达系统工程股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳创维数字技术有限公司</t>
+  </si>
+  <si>
+    <t>高德信息技术有限公司</t>
+  </si>
+  <si>
+    <t>银江股份有限公司</t>
+  </si>
+  <si>
+    <t>广东维沃软件技术有限公司</t>
+  </si>
+  <si>
+    <t>北京千方科技股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏金智集团有限公司</t>
+  </si>
+  <si>
+    <t>恒生电子股份有限公司</t>
+  </si>
+  <si>
+    <t>四川九洲电器集团有限责任公司</t>
+  </si>
+  <si>
+    <t>万达信息股份有限公司</t>
+  </si>
+  <si>
+    <t>北京华胜天成科技股份有限公司</t>
+  </si>
+  <si>
+    <t>广联达科技股份有限公司</t>
+  </si>
+  <si>
+    <t>金蝶软件（中国）有限公司</t>
+  </si>
+  <si>
+    <t>浙江宇视科技有限公司</t>
+  </si>
+  <si>
+    <t>博彦科技股份有限公司</t>
+  </si>
+  <si>
+    <t>启明星辰信息技术集团股份有限公司</t>
+  </si>
+  <si>
+    <t>先锋软件股份有限公司</t>
+  </si>
+  <si>
+    <t>山东中创软件工程股份有限公司</t>
+  </si>
+  <si>
+    <t>北京华宇软件股份有限公司</t>
+  </si>
+  <si>
+    <t>天津天地伟业数码科技有限公司</t>
+  </si>
+  <si>
+    <t>北京易华录信息技术股份有限公司</t>
+  </si>
+  <si>
+    <t>普天信息技术研究院有限公司</t>
+  </si>
+  <si>
+    <t>和利时科技集团有限公司</t>
+  </si>
+  <si>
+    <t>云南南天电子信息产业股份有限公司</t>
+  </si>
+  <si>
+    <t>大连华信计算机技术股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏润和科技投资集团有限公司</t>
+  </si>
+  <si>
+    <t>北京立思辰科技股份有限公司</t>
+  </si>
+  <si>
+    <t>海能达通信股份有限公司</t>
+  </si>
+  <si>
+    <t>中冶赛迪集团有限公司</t>
+  </si>
+  <si>
+    <t>北京宇信科技集团股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳怡化电脑股份有限公司</t>
+  </si>
+  <si>
+    <t>北京四维图新科技股份有限公司</t>
+  </si>
+  <si>
+    <t>杭州士兰微电子股份有限公司</t>
+  </si>
+  <si>
+    <t>南京联创科技集团股份有限公司</t>
+  </si>
+  <si>
+    <t>北京四方继保自动化股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海贝尔软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州海兴电力科技股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,32 +757,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -430,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2177727</v>
@@ -444,10 +806,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>4321020</v>
@@ -457,6 +819,1672 @@
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1854390</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1517945</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1186142</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1150419</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1120881</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1055490</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1047125</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>945764</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>808580</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>721596</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>695789</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>686886</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>682949</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>676425</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>671671</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>613112</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>613089</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>612716</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>605081</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>601402</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>597858</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>583499</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>562340</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>559629</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>524848</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>498369</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>473133</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>450188</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>449073</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>440725</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>430683</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>426174</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>409846</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>404607</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>401233</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>400889</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>395057</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>392637</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>368161</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>362728</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>360107</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>356807</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>351560</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>338738</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>323302</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>323171</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>322444</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>319531</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>311830</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>303354</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>295442</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>276548</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>274093</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>270973</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>263627</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>254201</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>250630</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>249671</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>244821</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>239469</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>236050</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>233879</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>227427</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>222116</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>220552</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>218287</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>217299</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>216804</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>215880</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>213429</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>207504</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>203609</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>203235</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>202913</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>201382</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>200728</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>193400</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>190514</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>188336</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>186064</v>
+      </c>
+      <c r="D83">
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>182011</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>175025</v>
+      </c>
+      <c r="D85">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>173896</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>173202</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>172239</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>170597</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>169217</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>169174</v>
+      </c>
+      <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>168973</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>163956</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>162790</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>162318</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>160138</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>158531</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>158081</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>158027</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>145224</v>
+      </c>
+      <c r="D100">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>145159</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
